--- a/UI.xlsx
+++ b/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Barao\PDM\ToDO Na Vespera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99093E5-D342-4F60-BB3D-A07D89180E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B06DF-EAE7-403B-B576-A9DF5D591D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="1320" windowWidth="17280" windowHeight="11664" xr2:uid="{A4E1D2B2-04B3-4E4E-91CE-6C2E170A7DE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4E1D2B2-04B3-4E4E-91CE-6C2E170A7DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Título</t>
   </si>
@@ -91,12 +91,18 @@
   <si>
     <t>Tamanho máximo 100 caracteres</t>
   </si>
+  <si>
+    <t>Descrição Tarefa</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +133,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,6 +359,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD80A885-BB9C-4BDC-84A9-F40594ACC2B9}">
-  <dimension ref="B1:AC34"/>
+  <dimension ref="B1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4:AC7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,8 +695,8 @@
     <col min="2" max="26" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -694,76 +723,72 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
-      <c r="AB3" t="s">
-        <v>0</v>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="6"/>
-      <c r="AC4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -780,22 +805,21 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AC5" t="s">
-        <v>16</v>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="32" t="s">
+        <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -812,74 +836,68 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AC6" t="s">
-        <v>17</v>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="12"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AC7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -904,34 +922,34 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -958,11 +976,9 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -987,34 +1003,34 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1041,13 +1057,11 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1070,7 +1084,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1097,11 +1111,9 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1126,33 +1138,31 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-      <c r="C18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
@@ -1182,11 +1192,9 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1211,18 +1219,14 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1269,11 +1273,9 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1284,9 +1286,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1300,31 +1300,31 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
       <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
@@ -1361,20 +1361,18 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
@@ -1390,18 +1388,18 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -1410,7 +1408,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1444,20 +1442,18 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="17"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
@@ -1473,18 +1469,18 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="20"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -1493,25 +1489,25 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="23"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
@@ -1547,67 +1543,975 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="24" t="s">
+    <row r="33" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="35" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+      <c r="AB37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="6"/>
+      <c r="AC38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
+      <c r="AC39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+      <c r="AC40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="6"/>
+      <c r="AC41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="6"/>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="9"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H29:S31"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="H26:S27"/>
+    <mergeCell ref="H63:S65"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="H60:S61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
